--- a/contacts 4.xlsx
+++ b/contacts 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leocr\Desktop\iad-scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4CED98-C379-411E-9000-524E3CEE4FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F885A1EB-188E-4A55-8F66-8E5C438322D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8686,7 +8686,7 @@
   <dimension ref="A1:D901"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
